--- a/Training/BiLSTM_BTC_result2.xlsx
+++ b/Training/BiLSTM_BTC_result2.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>2462.289975827137</v>
+        <v>292.9349864386749</v>
       </c>
       <c r="F1" t="n">
-        <v>2404.139902557637</v>
+        <v>237.971119831501</v>
       </c>
       <c r="G1" t="n">
-        <v>12.33007998043107</v>
+        <v>1.212510561754042</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0774338992268</v>
+        <v>322.3723846085423</v>
       </c>
       <c r="F2" t="n">
-        <v>355.5530907255649</v>
+        <v>267.4494501374284</v>
       </c>
       <c r="G2" t="n">
-        <v>1.867825607465155</v>
+        <v>1.380007890553275</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>372.1835917812288</v>
+        <v>310.1208049280826</v>
       </c>
       <c r="F3" t="n">
-        <v>311.6731372628484</v>
+        <v>257.9204934497491</v>
       </c>
       <c r="G3" t="n">
-        <v>1.627085853664211</v>
+        <v>1.327739174074208</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>2020.032173507541</v>
+        <v>291.5029133001788</v>
       </c>
       <c r="F4" t="n">
-        <v>1974.626577779775</v>
+        <v>243.9441159327197</v>
       </c>
       <c r="G4" t="n">
-        <v>10.10233029581436</v>
+        <v>1.270541371991133</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>421.4290922215995</v>
+        <v>335.7905757557174</v>
       </c>
       <c r="F5" t="n">
-        <v>374.1148252956895</v>
+        <v>284.0767379003352</v>
       </c>
       <c r="G5" t="n">
-        <v>1.957230921842183</v>
+        <v>1.488581579297852</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>340.3731361547758</v>
+        <v>350.2736895223684</v>
       </c>
       <c r="F6" t="n">
-        <v>290.2775766090303</v>
+        <v>298.6462478937626</v>
       </c>
       <c r="G6" t="n">
-        <v>1.52144518076975</v>
+        <v>1.565013745729113</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>1245.579781128187</v>
+        <v>290.7639227718086</v>
       </c>
       <c r="F7" t="n">
-        <v>1196.8731764079</v>
+        <v>246.8879193206265</v>
       </c>
       <c r="G7" t="n">
-        <v>6.183765205449944</v>
+        <v>1.285065374080395</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>255.8386444677459</v>
+        <v>321.2623296841296</v>
       </c>
       <c r="F8" t="n">
-        <v>214.2520111971663</v>
+        <v>275.4260374641499</v>
       </c>
       <c r="G8" t="n">
-        <v>1.113153820069748</v>
+        <v>1.438398178964835</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>263.5753704125727</v>
+        <v>333.4324277658465</v>
       </c>
       <c r="F9" t="n">
-        <v>220.1810470626201</v>
+        <v>286.4852513145323</v>
       </c>
       <c r="G9" t="n">
-        <v>1.142465459261183</v>
+        <v>1.49852656877179</v>
       </c>
     </row>
   </sheetData>
